--- a/data/trans_orig/P35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>300113</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>270725</v>
+        <v>270445</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>329518</v>
+        <v>325998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3060273130754899</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2760604605331015</v>
+        <v>0.2757750222010374</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3360118009460971</v>
+        <v>0.3324231840248882</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>408</v>
@@ -765,19 +765,19 @@
         <v>412727</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>380293</v>
+        <v>381855</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>446547</v>
+        <v>446565</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3289909447003512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3031368418206819</v>
+        <v>0.3043817638937967</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3559489214994339</v>
+        <v>0.35596303460568</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>720</v>
@@ -786,19 +786,19 @@
         <v>712840</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>670682</v>
+        <v>667050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>756997</v>
+        <v>757759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3189158610998696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3000550213605048</v>
+        <v>0.2984298987470076</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3386712913176163</v>
+        <v>0.3390121904901097</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>680560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>651155</v>
+        <v>654675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>709948</v>
+        <v>710228</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6939726869245102</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6639881990539033</v>
+        <v>0.6675768159751118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7239395394668989</v>
+        <v>0.7242249777989626</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>823</v>
@@ -836,19 +836,19 @@
         <v>841798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>807978</v>
+        <v>807960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>874232</v>
+        <v>872670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6710090552996487</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6440510785005661</v>
+        <v>0.64403696539432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6968631581793181</v>
+        <v>0.6956182361062033</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1499</v>
@@ -857,19 +857,19 @@
         <v>1522358</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1478201</v>
+        <v>1477439</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1564516</v>
+        <v>1568148</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6810841389001304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6613287086823838</v>
+        <v>0.6609878095098903</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6999449786394952</v>
+        <v>0.7015701012529925</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>178309</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>154555</v>
+        <v>153323</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>203697</v>
+        <v>202128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1104369388030323</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09572503737333753</v>
+        <v>0.09496173686881179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1261617219288416</v>
+        <v>0.1251896701518043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>212</v>
@@ -982,19 +982,19 @@
         <v>221118</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>191846</v>
+        <v>191682</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>248412</v>
+        <v>248680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1472943275848021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1277957105140428</v>
+        <v>0.1276861216581527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1654758409369155</v>
+        <v>0.1656548288757147</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>393</v>
@@ -1003,19 +1003,19 @@
         <v>399426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>362055</v>
+        <v>362475</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>435687</v>
+        <v>439013</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1281950376233832</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1162008794348891</v>
+        <v>0.116335806023203</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1398328917190774</v>
+        <v>0.1409004173599428</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1436265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1410877</v>
+        <v>1412446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1460019</v>
+        <v>1461251</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8895630611969677</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8738382780711584</v>
+        <v>0.8748103298481957</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9042749626266624</v>
+        <v>0.9050382631311883</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1258</v>
@@ -1053,19 +1053,19 @@
         <v>1280077</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1252783</v>
+        <v>1252515</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1309349</v>
+        <v>1309513</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8527056724151979</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8345241590630844</v>
+        <v>0.8343451711242853</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8722042894859571</v>
+        <v>0.8723138783418471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2650</v>
@@ -1074,19 +1074,19 @@
         <v>2716343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2680082</v>
+        <v>2676756</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2753714</v>
+        <v>2753294</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8718049623766168</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8601671082809227</v>
+        <v>0.8590995826400571</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8837991205651109</v>
+        <v>0.883664193976797</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>68900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54581</v>
+        <v>53390</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88195</v>
+        <v>85925</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1295170889661394</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1026013768349275</v>
+        <v>0.1003612577183981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1657877388152518</v>
+        <v>0.1615196593504321</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -1199,19 +1199,19 @@
         <v>57761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44753</v>
+        <v>44378</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73920</v>
+        <v>72311</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1277015241480484</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09894361102587636</v>
+        <v>0.09811368843127066</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1634267117379859</v>
+        <v>0.1598696406741002</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>118</v>
@@ -1220,19 +1220,19 @@
         <v>126661</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>107304</v>
+        <v>106781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151997</v>
+        <v>149102</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1286827780731798</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1090168195065608</v>
+        <v>0.1084860277996045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1544229932041503</v>
+        <v>0.1514822246768563</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>463076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>443781</v>
+        <v>446051</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>477395</v>
+        <v>478586</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8704829110338607</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8342122611847481</v>
+        <v>0.8384803406495678</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8973986231650725</v>
+        <v>0.8996387422816019</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>373</v>
@@ -1270,19 +1270,19 @@
         <v>394551</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>378392</v>
+        <v>380001</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>407559</v>
+        <v>407934</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8722984758519516</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8365732882620142</v>
+        <v>0.8401303593258999</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9010563889741237</v>
+        <v>0.9018863115687293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>818</v>
@@ -1291,19 +1291,19 @@
         <v>857627</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>832291</v>
+        <v>835186</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>876984</v>
+        <v>877507</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8713172219268203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8455770067958499</v>
+        <v>0.8485177753231438</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8909831804934393</v>
+        <v>0.8915139722003955</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>547321</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>506232</v>
+        <v>503551</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>587236</v>
+        <v>591230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1750183142575368</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1618790034667663</v>
+        <v>0.1610217958874227</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1877820828488352</v>
+        <v>0.1890591628850223</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>676</v>
@@ -1416,19 +1416,19 @@
         <v>691606</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>645268</v>
+        <v>645978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>742797</v>
+        <v>740117</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2155856923659197</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2011412083511215</v>
+        <v>0.2013625852219477</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2315426733103312</v>
+        <v>0.2307072994517462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1231</v>
@@ -1437,19 +1437,19 @@
         <v>1238927</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1177488</v>
+        <v>1180088</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1299957</v>
+        <v>1301900</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1955607352681062</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1858626629747316</v>
+        <v>0.1862731423471774</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2051940634276905</v>
+        <v>0.2055007825530351</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2579902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2539987</v>
+        <v>2535993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2620991</v>
+        <v>2623672</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8249816857424632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8122179171511648</v>
+        <v>0.8109408371149779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8381209965332337</v>
+        <v>0.8389782041125773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2454</v>
@@ -1487,19 +1487,19 @@
         <v>2516427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2465236</v>
+        <v>2467916</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2562765</v>
+        <v>2562055</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7844143076340804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7684573266896688</v>
+        <v>0.7692927005482542</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7988587916488785</v>
+        <v>0.7986374147780524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4967</v>
@@ -1508,19 +1508,19 @@
         <v>5096329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5035299</v>
+        <v>5033356</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5157768</v>
+        <v>5155168</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8044392647318938</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7948059365723095</v>
+        <v>0.7944992174469651</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8141373370252685</v>
+        <v>0.8137268576528226</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>372456</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>340215</v>
+        <v>342592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>402311</v>
+        <v>400916</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3898556645789592</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3561086005366614</v>
+        <v>0.3585964222543654</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.421106237702719</v>
+        <v>0.4196458911689764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>547</v>
@@ -1872,19 +1872,19 @@
         <v>585635</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>550204</v>
+        <v>545697</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>623515</v>
+        <v>618319</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4501920610880742</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4229553820395703</v>
+        <v>0.419490172230235</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4793107217121577</v>
+        <v>0.4753167824625452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>887</v>
@@ -1893,19 +1893,19 @@
         <v>958091</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>908487</v>
+        <v>912515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1005404</v>
+        <v>1011236</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4246434263652576</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.402657956545558</v>
+        <v>0.4044434779266106</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4456134037406471</v>
+        <v>0.4481980766202083</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>582912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>553057</v>
+        <v>554452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>615153</v>
+        <v>612776</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6101443354210409</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5788937622972811</v>
+        <v>0.5803541088310236</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6438913994633386</v>
+        <v>0.6414035777456352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -1943,19 +1943,19 @@
         <v>715222</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>677342</v>
+        <v>682538</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>750653</v>
+        <v>755160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5498079389119258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5206892782878424</v>
+        <v>0.5246832175374547</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5770446179604296</v>
+        <v>0.580509827769765</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1213</v>
@@ -1964,19 +1964,19 @@
         <v>1298134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1250821</v>
+        <v>1244989</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1347738</v>
+        <v>1343710</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5753565736347424</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5543865962593529</v>
+        <v>0.5518019233797916</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5973420434544421</v>
+        <v>0.5955565220733894</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>403401</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>366455</v>
+        <v>365122</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>440350</v>
+        <v>440742</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2127736360728029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.193286486300504</v>
+        <v>0.1925834685266003</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2322621553365734</v>
+        <v>0.2324690866084086</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>433</v>
@@ -2089,19 +2089,19 @@
         <v>476790</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>442575</v>
+        <v>435200</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>513553</v>
+        <v>515443</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.280017463198833</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2599227360366726</v>
+        <v>0.2555916002686797</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3016079641988484</v>
+        <v>0.30271786783101</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>805</v>
@@ -2110,19 +2110,19 @@
         <v>880191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>826906</v>
+        <v>830145</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>935037</v>
+        <v>934706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2445904986805422</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2297832415788517</v>
+        <v>0.230683535843237</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2598312296398643</v>
+        <v>0.2597392778906564</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1492515</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1455566</v>
+        <v>1455174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1529461</v>
+        <v>1530794</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7872263639271971</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7677378446634266</v>
+        <v>0.7675309133915913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.806713513699496</v>
+        <v>0.8074165314733996</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1150</v>
@@ -2160,19 +2160,19 @@
         <v>1225927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1189164</v>
+        <v>1187274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1260142</v>
+        <v>1267517</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7199825368011671</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6983920358011515</v>
+        <v>0.6972821321689902</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7400772639633268</v>
+        <v>0.7444083997313204</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2573</v>
@@ -2181,19 +2181,19 @@
         <v>2718442</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2663596</v>
+        <v>2663927</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2771727</v>
+        <v>2768488</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7554095013194578</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7401687703601358</v>
+        <v>0.7402607221093436</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7702167584211483</v>
+        <v>0.769316464156763</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>87147</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71610</v>
+        <v>69306</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107427</v>
+        <v>106572</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1857151078083878</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1526033991768212</v>
+        <v>0.1476947065793693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.228931061990384</v>
+        <v>0.227109828382718</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -2306,19 +2306,19 @@
         <v>123853</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102716</v>
+        <v>105281</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145946</v>
+        <v>145209</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2786577819213011</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2311007596552073</v>
+        <v>0.236873150135791</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3283663096361478</v>
+        <v>0.3267073269155302</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>186</v>
@@ -2327,19 +2327,19 @@
         <v>211000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>185507</v>
+        <v>184715</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>240094</v>
+        <v>236928</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2309255863045629</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2030246376870834</v>
+        <v>0.2021584596470049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2627670264590664</v>
+        <v>0.2593017100351023</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>382106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>361826</v>
+        <v>362681</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>397643</v>
+        <v>399947</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8142848921916122</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7710689380096158</v>
+        <v>0.7728901716172822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8473966008231787</v>
+        <v>0.852305293420631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>290</v>
@@ -2377,19 +2377,19 @@
         <v>320609</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>298516</v>
+        <v>299253</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>341746</v>
+        <v>339181</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7213422180786988</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6716336903638523</v>
+        <v>0.6732926730844703</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7688992403447931</v>
+        <v>0.7631268498642092</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -2398,19 +2398,19 @@
         <v>702715</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>673621</v>
+        <v>676787</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>728208</v>
+        <v>729000</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7690744136954372</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7372329735409336</v>
+        <v>0.7406982899648976</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7969753623129165</v>
+        <v>0.797841540352995</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>863004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>812850</v>
+        <v>813405</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>918737</v>
+        <v>913408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2598989120050408</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2447946672765313</v>
+        <v>0.2449619920797913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.276683261066121</v>
+        <v>0.2750783329903844</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1090</v>
@@ -2523,19 +2523,19 @@
         <v>1186279</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1132086</v>
+        <v>1129114</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1239460</v>
+        <v>1243763</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3440447724844836</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3283276958294243</v>
+        <v>0.3274658502405708</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3594685095092828</v>
+        <v>0.3607162301559539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1878</v>
@@ -2544,19 +2544,19 @@
         <v>2049282</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1968855</v>
+        <v>1966107</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2126183</v>
+        <v>2127478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3027643664900384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.290881917992186</v>
+        <v>0.2904759193662406</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3141258441306494</v>
+        <v>0.3143170725102313</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2457533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2401800</v>
+        <v>2407129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2507687</v>
+        <v>2507132</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7401010879949591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7233167389338793</v>
+        <v>0.7249216670096156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7552053327234689</v>
+        <v>0.7550380079202087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2104</v>
@@ -2594,19 +2594,19 @@
         <v>2261757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2208576</v>
+        <v>2204273</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2315950</v>
+        <v>2318922</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6559552275155164</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6405314904907171</v>
+        <v>0.639283769844046</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6716723041705757</v>
+        <v>0.6725341497594292</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4427</v>
@@ -2615,19 +2615,19 @@
         <v>4719290</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4642389</v>
+        <v>4641094</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4799717</v>
+        <v>4802465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6972356335099615</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6858741558693506</v>
+        <v>0.6856829274897688</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.709118082007814</v>
+        <v>0.7095240806337595</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>311273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>286320</v>
+        <v>285122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>338819</v>
+        <v>336524</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4208733453686681</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3871345962247379</v>
+        <v>0.3855135232353087</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.458118325641647</v>
+        <v>0.4550150316091562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>435</v>
@@ -2979,19 +2979,19 @@
         <v>485860</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>454213</v>
+        <v>454179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>518860</v>
+        <v>518017</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4942498887902043</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4620558001788633</v>
+        <v>0.4620216387707796</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5278195992469239</v>
+        <v>0.5269613769993404</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>754</v>
@@ -3000,19 +3000,19 @@
         <v>797134</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>755581</v>
+        <v>759984</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>839477</v>
+        <v>845295</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4627463546309739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4386244091300426</v>
+        <v>0.441180276811644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4873272643106853</v>
+        <v>0.4907046419897195</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>428316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>400770</v>
+        <v>403065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453269</v>
+        <v>454467</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5791266546313318</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5418816743583531</v>
+        <v>0.5449849683908438</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6128654037752623</v>
+        <v>0.6144864767646913</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>446</v>
@@ -3050,19 +3050,19 @@
         <v>497166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>464166</v>
+        <v>465009</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>528813</v>
+        <v>528847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5057501112097956</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4721804007530759</v>
+        <v>0.4730386230006597</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5379441998211366</v>
+        <v>0.537978361229221</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>874</v>
@@ -3071,19 +3071,19 @@
         <v>925481</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>883138</v>
+        <v>877320</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>967034</v>
+        <v>962631</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5372536453690261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5126727356893147</v>
+        <v>0.5092953580102805</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5613755908699574</v>
+        <v>0.5588197231883559</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>492145</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>453436</v>
+        <v>450236</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>529742</v>
+        <v>533642</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2403392114410167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2214357619791369</v>
+        <v>0.2198727108242743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2586997235717416</v>
+        <v>0.2606041986347554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>544</v>
@@ -3196,19 +3196,19 @@
         <v>579662</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>541371</v>
+        <v>540845</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>623764</v>
+        <v>626835</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2947876066139368</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2753146534426147</v>
+        <v>0.2750473670382809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3172159529237416</v>
+        <v>0.3187775442882773</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>998</v>
@@ -3217,19 +3217,19 @@
         <v>1071807</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1005069</v>
+        <v>1018779</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1124354</v>
+        <v>1131566</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2670117537832479</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2503857624055481</v>
+        <v>0.2538012518178718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2801024891454006</v>
+        <v>0.2818990855920988</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1555565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1517968</v>
+        <v>1514068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1594274</v>
+        <v>1597474</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7596607885589832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7413002764282584</v>
+        <v>0.7393958013652445</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7785642380208631</v>
+        <v>0.7801272891757257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1344</v>
@@ -3267,19 +3267,19 @@
         <v>1386709</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1342607</v>
+        <v>1339536</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1425000</v>
+        <v>1425526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7052123933860632</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6827840470762586</v>
+        <v>0.6812224557117227</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7246853465573853</v>
+        <v>0.724952632961719</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2814</v>
@@ -3288,19 +3288,19 @@
         <v>2942275</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2889728</v>
+        <v>2882516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3009013</v>
+        <v>2995303</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7329882462167521</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7198975108545993</v>
+        <v>0.7181009144079014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7496142375944519</v>
+        <v>0.7461987481821285</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>126981</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107556</v>
+        <v>107899</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148224</v>
+        <v>149660</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2371317739025058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2008554984361958</v>
+        <v>0.2014970487327551</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2768019421242858</v>
+        <v>0.2794834419290728</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>141</v>
@@ -3413,19 +3413,19 @@
         <v>148945</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127126</v>
+        <v>128299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>169716</v>
+        <v>170778</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2778178841275485</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2371205696157245</v>
+        <v>0.2393082338635591</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3165623667749696</v>
+        <v>0.3185421638713104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>254</v>
@@ -3434,19 +3434,19 @@
         <v>275926</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>245657</v>
+        <v>246948</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>306972</v>
+        <v>307273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2574868788892272</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2292404141469474</v>
+        <v>0.2304454000462023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2864585841275091</v>
+        <v>0.286738646369498</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>408508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>387265</v>
+        <v>385829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427933</v>
+        <v>427590</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7628682260974942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7231980578757142</v>
+        <v>0.7205165580709272</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7991445015638041</v>
+        <v>0.7985029512672449</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>374</v>
@@ -3484,19 +3484,19 @@
         <v>387178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>366407</v>
+        <v>365345</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>408997</v>
+        <v>407824</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7221821158724515</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6834376332250304</v>
+        <v>0.6814578361286894</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7628794303842754</v>
+        <v>0.7606917661364409</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>753</v>
@@ -3505,19 +3505,19 @@
         <v>795686</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>764640</v>
+        <v>764339</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>825955</v>
+        <v>824664</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7425131211107728</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.713541415872491</v>
+        <v>0.7132613536305024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7707595858530526</v>
+        <v>0.7695545999537977</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>930400</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>877138</v>
+        <v>875717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>983566</v>
+        <v>981126</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2800057353498462</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2639766010302355</v>
+        <v>0.2635488788766446</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2960063095199561</v>
+        <v>0.295271951758908</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1120</v>
@@ -3630,19 +3630,19 @@
         <v>1214467</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1151402</v>
+        <v>1154982</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1268204</v>
+        <v>1271456</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3484320344736834</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3303385017778075</v>
+        <v>0.331365556693431</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3638491098520935</v>
+        <v>0.36478220695839</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2006</v>
@@ -3651,19 +3651,19 @@
         <v>2144867</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2066095</v>
+        <v>2070921</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2220273</v>
+        <v>2225336</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3150366534831328</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3034667295689926</v>
+        <v>0.304175587053952</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3261121984768443</v>
+        <v>0.3268559604817037</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2392388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2339222</v>
+        <v>2341662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2445650</v>
+        <v>2447071</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7199942646501538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7039936904800439</v>
+        <v>0.7047280482410919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7360233989697645</v>
+        <v>0.7364511211233552</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2164</v>
@@ -3701,19 +3701,19 @@
         <v>2271054</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2217317</v>
+        <v>2214065</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2334119</v>
+        <v>2330539</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6515679655263166</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6361508901479066</v>
+        <v>0.63521779304161</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6696614982221925</v>
+        <v>0.6686344433065687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4441</v>
@@ -3722,19 +3722,19 @@
         <v>4663442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4588036</v>
+        <v>4582973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4742214</v>
+        <v>4737388</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6849633465168673</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6738878015231559</v>
+        <v>0.6731440395182962</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6965332704310074</v>
+        <v>0.6958244129460478</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>237854</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>215822</v>
+        <v>215188</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>261289</v>
+        <v>260029</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4111363879412863</v>
+        <v>0.4111363879412862</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3730531762554274</v>
+        <v>0.3719578547555896</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4516440771384966</v>
+        <v>0.4494655030542702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>697</v>
@@ -4086,19 +4086,19 @@
         <v>399021</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>376311</v>
+        <v>377638</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>422084</v>
+        <v>422980</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.486437383290675</v>
+        <v>0.4864373832906752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4587522989819107</v>
+        <v>0.4603696131120184</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5145528462793477</v>
+        <v>0.5156456191160829</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1013</v>
@@ -4107,19 +4107,19 @@
         <v>636876</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>602172</v>
+        <v>602051</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>668946</v>
+        <v>668587</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4552941656883016</v>
+        <v>0.4552941656883017</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4304845013061668</v>
+        <v>0.4303984790149923</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4782206512421356</v>
+        <v>0.4779639945046275</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>340675</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>317240</v>
+        <v>318500</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362707</v>
+        <v>363341</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5888636120587138</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5483559228615034</v>
+        <v>0.5505344969457298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6269468237445726</v>
+        <v>0.6280421452444105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>727</v>
@@ -4157,19 +4157,19 @@
         <v>421272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>398209</v>
+        <v>397313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>443982</v>
+        <v>442655</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5135626167093249</v>
+        <v>0.513562616709325</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4854471537206522</v>
+        <v>0.4843543808839172</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5412477010180895</v>
+        <v>0.5396303868879819</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1102</v>
@@ -4178,19 +4178,19 @@
         <v>761947</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>729877</v>
+        <v>730236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>796651</v>
+        <v>796772</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5447058343116982</v>
+        <v>0.5447058343116983</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5217793487578644</v>
+        <v>0.5220360054953724</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5695154986938333</v>
+        <v>0.5696015209850076</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>743060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>689456</v>
+        <v>693930</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>800148</v>
+        <v>796475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3331262754890162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3090948339173731</v>
+        <v>0.3111005184805624</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3587196928369236</v>
+        <v>0.3570728279763918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1090</v>
@@ -4303,19 +4303,19 @@
         <v>804108</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>764366</v>
+        <v>762826</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>843850</v>
+        <v>847093</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3706515089086975</v>
+        <v>0.3706515089086974</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.35233271272255</v>
+        <v>0.351622647659049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3889704807627555</v>
+        <v>0.3904652721174866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1824</v>
@@ -4324,19 +4324,19 @@
         <v>1547168</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1488443</v>
+        <v>1485894</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1614284</v>
+        <v>1613318</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3516282540673129</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3382816233381069</v>
+        <v>0.3377022450541305</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3668818110399715</v>
+        <v>0.3666622002176299</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1487506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1430418</v>
+        <v>1434091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1541110</v>
+        <v>1536636</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6668737245109838</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6412803071630763</v>
+        <v>0.6429271720236082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.690905166082627</v>
+        <v>0.6888994815194375</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1828</v>
@@ -4374,19 +4374,19 @@
         <v>1365336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1325594</v>
+        <v>1322351</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1405078</v>
+        <v>1406618</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6293484910913029</v>
+        <v>0.6293484910913026</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6110295192372446</v>
+        <v>0.6095347278825134</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6476672872774502</v>
+        <v>0.6483773523409511</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3086</v>
@@ -4395,19 +4395,19 @@
         <v>2852843</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2785727</v>
+        <v>2786693</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2911568</v>
+        <v>2914117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.648371745932687</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6331181889600285</v>
+        <v>0.6333377997823703</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.661718376661893</v>
+        <v>0.6622977549458694</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>231695</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>204665</v>
+        <v>207327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>260954</v>
+        <v>259073</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.325602884788322</v>
+        <v>0.3256028847883219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2876173299137957</v>
+        <v>0.2913586617985039</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3667213614633409</v>
+        <v>0.3640775150351896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>282</v>
@@ -4520,19 +4520,19 @@
         <v>206738</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>183898</v>
+        <v>186107</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>228308</v>
+        <v>230404</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2815085021857484</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2504082642226147</v>
+        <v>0.2534156554473983</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3108796716039872</v>
+        <v>0.313734363985911</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>516</v>
@@ -4541,19 +4541,19 @@
         <v>438433</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>403594</v>
+        <v>403204</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>470010</v>
+        <v>475086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.303207972649253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2791142332802163</v>
+        <v>0.2788446776052563</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3250461996486437</v>
+        <v>0.3285563019206029</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>479892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>450633</v>
+        <v>452514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>506922</v>
+        <v>504260</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6743971152116781</v>
+        <v>0.674397115211678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.633278638536659</v>
+        <v>0.6359224849648104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7123826700862042</v>
+        <v>0.7086413382014962</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>721</v>
@@ -4591,19 +4591,19 @@
         <v>527655</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>506085</v>
+        <v>503989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>550495</v>
+        <v>548286</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7184914978142514</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6891203283960129</v>
+        <v>0.6862656360140889</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7495917357773854</v>
+        <v>0.7465843445526017</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1168</v>
@@ -4612,19 +4612,19 @@
         <v>1007547</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>975970</v>
+        <v>970894</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1042386</v>
+        <v>1042776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.696792027350747</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6749538003513563</v>
+        <v>0.6714436980793972</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7208857667197837</v>
+        <v>0.7211553223947439</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1212610</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1150955</v>
+        <v>1159941</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1272023</v>
+        <v>1271486</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3444245377259686</v>
+        <v>0.3444245377259687</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3269122846358811</v>
+        <v>0.3294647233963528</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3612999417101717</v>
+        <v>0.361147457614046</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2069</v>
@@ -4737,19 +4737,19 @@
         <v>1409867</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1359854</v>
+        <v>1354860</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1462129</v>
+        <v>1457527</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3785761568759037</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3651466905292491</v>
+        <v>0.363805658461462</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3926094644581592</v>
+        <v>0.3913738612688356</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3353</v>
@@ -4758,19 +4758,19 @@
         <v>2622476</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2544998</v>
+        <v>2540069</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2710252</v>
+        <v>2708149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3619798665771427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3512855857227798</v>
+        <v>0.3506052090315651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3740954636103683</v>
+        <v>0.3738052966921189</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2308073</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2248660</v>
+        <v>2249197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2369728</v>
+        <v>2360742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6555754622740314</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6387000582898283</v>
+        <v>0.6388525423859539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6730877153641189</v>
+        <v>0.670535276603647</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3276</v>
@@ -4808,19 +4808,19 @@
         <v>2314263</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2262001</v>
+        <v>2266603</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2364276</v>
+        <v>2369270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6214238431240964</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6073905355418407</v>
+        <v>0.6086261387311643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6348533094707509</v>
+        <v>0.6361943415385382</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5356</v>
@@ -4829,19 +4829,19 @@
         <v>4622337</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4534561</v>
+        <v>4536664</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4699815</v>
+        <v>4704744</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6380201334228575</v>
+        <v>0.6380201334228573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6259045363896315</v>
+        <v>0.6261947033078811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6487144142772201</v>
+        <v>0.6493947909684346</v>
       </c>
     </row>
     <row r="15">
